--- a/ExcelAddIn/CellAnalyzerOfficeAddin/bin/Debug/Book1.xlsx
+++ b/ExcelAddIn/CellAnalyzerOfficeAddin/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5a1fc63d60e240de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0b96a9c0e97348c6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="437" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7c6ee025b0a646cc"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd5b10a7023cb4ffb"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7b2603c1-a007-498a-b4ba-4ee36bb2244a}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3dec3c5c-54f0-4e5b-addf-dc205eddaef9}">
   <we:reference id="4a72619f-9a57-4644-9968-8c867ca336f9" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/ExcelAddIn/CellAnalyzerOfficeAddin/bin/Debug/Book1.xlsx
+++ b/ExcelAddIn/CellAnalyzerOfficeAddin/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R0b96a9c0e97348c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9abdb40fae924d54"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="437" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd5b10a7023cb4ffb"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5ddff054f4ac4209"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3dec3c5c-54f0-4e5b-addf-dc205eddaef9}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8440546d-cccb-4750-a131-2951e965bec6}">
   <we:reference id="4a72619f-9a57-4644-9968-8c867ca336f9" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/ExcelAddIn/CellAnalyzerOfficeAddin/bin/Debug/Book1.xlsx
+++ b/ExcelAddIn/CellAnalyzerOfficeAddin/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9abdb40fae924d54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R186a6ac7a21a412b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="437" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5ddff054f4ac4209"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R287383c628944a54"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8440546d-cccb-4750-a131-2951e965bec6}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{01da558c-f2d8-4b1f-ae66-324ff283d7c8}">
   <we:reference id="4a72619f-9a57-4644-9968-8c867ca336f9" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
